--- a/input/Longitudinal Ambulatory Block Preferences(1-14).xlsx
+++ b/input/Longitudinal Ambulatory Block Preferences(1-14).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lodhar/Projects/clerkshipscheduler/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5A71E-AC1A-4246-A913-F0316FE708F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0F6C5-5FA1-CA46-A1BA-0549CB923DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -682,7 +682,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,9 +783,6 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
@@ -821,9 +818,6 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
@@ -892,9 +886,6 @@
       <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>

--- a/input/Longitudinal Ambulatory Block Preferences(1-14).xlsx
+++ b/input/Longitudinal Ambulatory Block Preferences(1-14).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lodhar/Projects/clerkshipscheduler/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0F6C5-5FA1-CA46-A1BA-0549CB923DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C049E7A7-19E5-EF47-BB1D-59814A411C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Miranda Arakelian</t>
-  </si>
-  <si>
-    <t>Thursday AM</t>
   </si>
   <si>
     <t>Main Campus/Dao, Thao-Vi</t>
@@ -266,6 +263,9 @@
   <si>
     <t>02/24, 02/25 
 04/13, 04/14</t>
+  </si>
+  <si>
+    <t>Tuesday PM</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -781,19 +781,22 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -807,19 +810,22 @@
         <v>45275.400972222204</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>45275.404432870397</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -828,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -842,29 +848,29 @@
         <v>45275.4437847222</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,17 +884,20 @@
         <v>45275.679305555597</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -897,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -911,20 +920,20 @@
         <v>45275.765960648103</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -933,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -947,26 +956,26 @@
         <v>45277.803773148102</v>
       </c>
       <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -980,10 +989,10 @@
         <v>45278.564756944397</v>
       </c>
       <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
@@ -993,16 +1002,16 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1016,14 +1025,14 @@
         <v>45279.168576388904</v>
       </c>
       <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1037,17 +1046,17 @@
         <v>45279.7661226852</v>
       </c>
       <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -1056,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1070,17 +1079,17 @@
         <v>45280.727083333302</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -1092,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1106,20 +1115,20 @@
         <v>45282.453402777799</v>
       </c>
       <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1128,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1142,29 +1151,29 @@
         <v>45287.002812500003</v>
       </c>
       <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1178,29 +1187,29 @@
         <v>45288.814317129603</v>
       </c>
       <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" t="s">
         <v>76</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
